--- a/public/DataSPJTr/template-spj translok (1).xlsx
+++ b/public/DataSPJTr/template-spj translok (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888FCEEB-9F5C-4BCC-A695-6E12293FD758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A295A1-C374-43F8-A668-4E8C26CCA7B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A28113D-6ED3-4D1C-B1CC-9E825CF1BCE8}"/>
+    <workbookView xWindow="1900" yWindow="1890" windowWidth="11010" windowHeight="8910" xr2:uid="{2A28113D-6ED3-4D1C-B1CC-9E825CF1BCE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Bank</t>
   </si>
@@ -69,13 +75,16 @@
     <t>Jumlah yang dibayarkan (Rp.)</t>
   </si>
   <si>
-    <t>Dosen A</t>
-  </si>
-  <si>
-    <t>BRI</t>
-  </si>
-  <si>
-    <t>Dosen B</t>
+    <t>dosen a</t>
+  </si>
+  <si>
+    <t>dosen b</t>
+  </si>
+  <si>
+    <t>bri</t>
+  </si>
+  <si>
+    <t>bni</t>
   </si>
 </sst>
 </file>
@@ -234,15 +243,15 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -251,10 +260,10 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -302,6 +311,7 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -620,19 +630,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85D5202-3C6E-41EB-B3F6-D92F32C102C3}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -655,7 +664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
@@ -678,7 +687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -686,45 +695,45 @@
         <v>14</v>
       </c>
       <c r="C3" s="16">
-        <v>20000</v>
+        <v>1250</v>
       </c>
       <c r="D3" s="17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E3" s="18">
-        <v>40000</v>
+        <v>27000</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="20">
-        <v>1122334234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="16">
-        <v>20000</v>
+        <v>1250</v>
       </c>
       <c r="D4" s="17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E4" s="18">
-        <v>45200</v>
+        <v>27000</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4" s="20">
-        <v>1122334235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>12456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -733,7 +742,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -742,7 +751,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -751,7 +760,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
@@ -760,7 +769,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -769,7 +778,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -778,7 +787,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
@@ -787,7 +796,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
@@ -796,7 +805,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -805,7 +814,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -814,7 +823,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -823,7 +832,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -832,7 +841,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -841,7 +850,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -850,7 +859,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -859,7 +868,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -868,7 +877,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -877,7 +886,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
